--- a/regex/progress.xlsx
+++ b/regex/progress.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="progress" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -250,16 +250,17 @@
     <t>14cpf</t>
   </si>
   <si>
+    <t>[2, 3]</t>
+  </si>
+  <si>
+    <t>14cpfawogns</t>
+  </si>
+  <si>
+    <t>14cpfapjh940404</t>
+  </si>
+  <si>
     <t>14cpfacherish19</t>
-  </si>
-  <si>
-    <t>[2, 3]</t>
-  </si>
-  <si>
-    <t>14cpfawogns</t>
-  </si>
-  <si>
-    <t>14cpfapjh940404</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1208,13 +1209,13 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:A9"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="3.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
@@ -1379,7 +1380,7 @@
         <v>53</v>
       </c>
       <c r="B2">
-        <f>COUNTA(C2:AR2)</f>
+        <f t="shared" ref="B2:B33" si="0">COUNTA(C2:AR2)</f>
         <v>15</v>
       </c>
       <c r="C2" t="s">
@@ -1430,14 +1431,14 @@
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
         <v>78</v>
-      </c>
-      <c r="B3">
-        <f>COUNTA(C3:AR3)</f>
-        <v>13</v>
-      </c>
-      <c r="J3" t="s">
-        <v>79</v>
       </c>
       <c r="L3" t="s">
         <v>41</v>
@@ -1481,7 +1482,7 @@
         <v>67</v>
       </c>
       <c r="B4">
-        <f>COUNTA(C4:AR4)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="J4" t="s">
@@ -1526,7 +1527,7 @@
         <v>51</v>
       </c>
       <c r="B5">
-        <f>COUNTA(C5:AR5)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C5" t="s">
@@ -1568,7 +1569,7 @@
         <v>57</v>
       </c>
       <c r="B6">
-        <f>COUNTA(C6:AR6)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -1610,7 +1611,7 @@
         <v>48</v>
       </c>
       <c r="B7">
-        <f>COUNTA(C7:AR7)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="J7" t="s">
@@ -1649,7 +1650,7 @@
         <v>58</v>
       </c>
       <c r="B8">
-        <f>COUNTA(C8:AR8)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="J8" t="s">
@@ -1688,7 +1689,7 @@
         <v>68</v>
       </c>
       <c r="B9">
-        <f>COUNTA(C9:AR9)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="J9" t="s">
@@ -1727,7 +1728,7 @@
         <v>69</v>
       </c>
       <c r="B10">
-        <f>COUNTA(C10:AR10)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="J10" t="s">
@@ -1766,7 +1767,7 @@
         <v>40</v>
       </c>
       <c r="B11">
-        <f>COUNTA(C11:AR11)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="F11" t="s">
@@ -1805,7 +1806,7 @@
         <v>72</v>
       </c>
       <c r="B12">
-        <f>COUNTA(C12:AR12)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H12" t="s">
@@ -1844,7 +1845,7 @@
         <v>56</v>
       </c>
       <c r="B13">
-        <f>COUNTA(C13:AR13)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="J13" t="s">
@@ -1880,7 +1881,7 @@
         <v>62</v>
       </c>
       <c r="B14">
-        <f>COUNTA(C14:AR14)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="J14" t="s">
@@ -1916,7 +1917,7 @@
         <v>63</v>
       </c>
       <c r="B15">
-        <f>COUNTA(C15:AR15)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="J15" t="s">
@@ -1949,10 +1950,10 @@
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B16">
-        <f>COUNTA(C16:AR16)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="G16" t="s">
@@ -1988,7 +1989,7 @@
         <v>49</v>
       </c>
       <c r="B17">
-        <f>COUNTA(C17:AR17)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="J17" t="s">
@@ -2021,7 +2022,7 @@
         <v>60</v>
       </c>
       <c r="B18">
-        <f>COUNTA(C18:AR18)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="J18" t="s">
@@ -2054,7 +2055,7 @@
         <v>44</v>
       </c>
       <c r="B19">
-        <f>COUNTA(C19:AR19)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="J19" t="s">
@@ -2084,7 +2085,7 @@
         <v>55</v>
       </c>
       <c r="B20">
-        <f>COUNTA(C20:AR20)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="J20" t="s">
@@ -2111,7 +2112,7 @@
         <v>47</v>
       </c>
       <c r="B21">
-        <f>COUNTA(C21:AR21)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="J21" t="s">
@@ -2138,7 +2139,7 @@
         <v>52</v>
       </c>
       <c r="B22">
-        <f>COUNTA(C22:AR22)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="J22" t="s">
@@ -2165,7 +2166,7 @@
         <v>59</v>
       </c>
       <c r="B23">
-        <f>COUNTA(C23:AR23)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="L23" t="s">
@@ -2192,7 +2193,7 @@
         <v>64</v>
       </c>
       <c r="B24">
-        <f>COUNTA(C24:AR24)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="J24" t="s">
@@ -2219,7 +2220,7 @@
         <v>65</v>
       </c>
       <c r="B25">
-        <f>COUNTA(C25:AR25)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="J25" t="s">
@@ -2246,7 +2247,7 @@
         <v>71</v>
       </c>
       <c r="B26">
-        <f>COUNTA(C26:AR26)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="J26" t="s">
@@ -2273,7 +2274,7 @@
         <v>74</v>
       </c>
       <c r="B27">
-        <f>COUNTA(C27:AR27)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="J27" t="s">
@@ -2300,7 +2301,7 @@
         <v>76</v>
       </c>
       <c r="B28">
-        <f>COUNTA(C28:AR28)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="J28" t="s">
@@ -2324,10 +2325,10 @@
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B29">
-        <f>COUNTA(C29:AR29)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="J29" t="s">
@@ -2354,7 +2355,7 @@
         <v>50</v>
       </c>
       <c r="B30">
-        <f>COUNTA(C30:AR30)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="F30" t="s">
@@ -2381,7 +2382,7 @@
         <v>66</v>
       </c>
       <c r="B31">
-        <f>COUNTA(C31:AR31)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="K31" t="s">
@@ -2408,7 +2409,7 @@
         <v>75</v>
       </c>
       <c r="B32">
-        <f>COUNTA(C32:AR32)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="K32" t="s">
@@ -2435,7 +2436,7 @@
         <v>77</v>
       </c>
       <c r="B33">
-        <f>COUNTA(C33:AR33)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J33" t="s">
